--- a/server/emission_data.xlsx
+++ b/server/emission_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\monisha\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC292C8-07AC-4D36-8112-2BA3A70259F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D9BE99A-3047-4DD3-95D5-DD93D7E6A3EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4666DA09-279D-42FC-AEA6-2C7C6BE26723}"/>
   </bookViews>
@@ -62,9 +62,6 @@
     <t>0284000090883</t>
   </si>
   <si>
-    <t>PRODUCT BARCODE</t>
-  </si>
-  <si>
     <t>YEAR</t>
   </si>
   <si>
@@ -74,12 +71,6 @@
     <t>EMSSIONS</t>
   </si>
   <si>
-    <t>MARKET CATEGORY</t>
-  </si>
-  <si>
-    <t>EMISSION CATEGORY</t>
-  </si>
-  <si>
     <t>RED</t>
   </si>
   <si>
@@ -126,6 +117,15 @@
   </si>
   <si>
     <t>LAYS</t>
+  </si>
+  <si>
+    <t>EMISSION_CATEGORY</t>
+  </si>
+  <si>
+    <t>MARKET_CATEGORY</t>
+  </si>
+  <si>
+    <t>PRODUCT_BARCODE</t>
   </si>
 </sst>
 </file>
@@ -498,7 +498,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -511,25 +511,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -540,7 +540,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
@@ -549,10 +549,10 @@
         <v>5.49</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -560,22 +560,22 @@
         <v>2021</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E3" s="3">
         <v>113</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -586,7 +586,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
         <v>2</v>
@@ -595,10 +595,10 @@
         <v>63</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -609,7 +609,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>2</v>
@@ -618,10 +618,10 @@
         <v>63</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -632,19 +632,19 @@
         <v>6</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -655,19 +655,19 @@
         <v>7</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E7" s="2">
         <v>0</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E8" s="2">
         <v>0</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -701,19 +701,19 @@
         <v>8</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
